--- a/Output/nest_substrat.xlsx
+++ b/Output/nest_substrat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniumonsac-my.sharepoint.com/personal/151201_umons_ac_be/Documents/UMONS/MA2/MEMOIRE/Statistique/R/STAT-MEMOIRE/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_53F0EEDB629E50BA28A45A19FB38C65EAA4BD859" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{313B1B93-6A82-4A1E-B96D-32C77F4D41DE}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_53F0EEDB629E50BA28A45A19FB38C65EAA4BD859" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5FBC482-AFB7-4F06-8924-43C26D4746CA}"/>
   <bookViews>
-    <workbookView xWindow="34470" yWindow="4170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -916,9 +916,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,7 +1836,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
